--- a/src/test/resources/workbook.xlsx
+++ b/src/test/resources/workbook.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Java\WorkbookEventReader\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20919ECE-A303-41E5-8A09-D2C0CBF89B8D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F0AB6CB-F8D0-4178-BDB5-069001073EA1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1410" yWindow="1620" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7230" yWindow="2325" windowWidth="16125" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,29 +35,67 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
   <si>
     <t>Integer or Long</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Double</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ocalTime</t>
+    </r>
   </si>
   <si>
     <t>LocalDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>LocalDateTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Double</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>The quick brown fox jumps over the lazy dog</t>
   </si>
   <si>
+    <t>654321654321654321</t>
+  </si>
+  <si>
+    <t>123456789012345678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123456789  </t>
+  </si>
+  <si>
+    <t>0.12345678901234567890</t>
+  </si>
+  <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>B</t>
     </r>
     <r>
@@ -63,32 +104,46 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>oolean</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Error/Exception</t>
   </si>
   <si>
     <r>
-      <t>L</t>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a</t>
     </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bc123</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
         <sz val="10"/>
-        <color indexed="8"/>
+        <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
-      <t>ocalTime</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>Local</t>
     </r>
     <r>
@@ -97,49 +152,10 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>Time</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>654321654321654321</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>a</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>bc123</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Error/Exception</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>123456789012345678</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">123456789  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.12345678901234567890</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -147,9 +163,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="[$-409]yyyy/m/d\ h:mm\ AM/PM;@"/>
+    <numFmt numFmtId="178" formatCode="[$-409]yyyy/m/d\ h:mm\ AM/PM;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,25 +174,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -184,15 +185,19 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -219,47 +224,41 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="21" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -322,7 +321,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -355,26 +354,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -407,23 +389,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -566,33 +531,29 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.75" customWidth="1"/>
+    <col min="2" max="2" width="41.25" customWidth="1"/>
+    <col min="3" max="3" width="12"/>
+    <col min="4" max="4" width="12.75" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
     <col min="6" max="6" width="19.875" customWidth="1"/>
     <col min="7" max="7" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -609,9 +570,9 @@
         <v>-10000000000</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2">
         <v>9.9</v>
@@ -631,39 +592,39 @@
         <v>222.222222222222</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6">
         <v>0.4375</v>
       </c>
-      <c r="C3" s="10">
-        <v>0.89584490740740741</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C3" s="7">
+        <v>0.89584490740740697</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" s="3">
         <v>43413</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5" s="4">
-        <v>43413.333333333336</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <v>43413.333333333299</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" s="5">
         <v>123</v>
@@ -672,56 +633,60 @@
         <v>1234567890</v>
       </c>
       <c r="E6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
-        <v>6</v>
+      <c r="H6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" t="str">
+        <f>""&amp;C6</f>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="B7" s="2" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="C7" s="7" t="b">
+      <c r="C7" s="9" t="b">
         <f>C1=C2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" s="2" t="e">
         <f ca="1">SUN()</f>
         <v>#NAME?</v>
       </c>
       <c r="C8" s="2" t="e">
-        <f>C1/C2 * B6</f>
+        <f>C1/C2*B6</f>
         <v>#VALUE!</v>
       </c>
       <c r="D8" s="2" t="e">
         <f>D1/0</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="10">
         <v>123456789</v>
       </c>
-      <c r="F8" s="12" t="s">
-        <v>10</v>
+      <c r="F8" s="11" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -735,13 +700,13 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.75" customWidth="1"/>
     <col min="2" max="2" width="13.25" customWidth="1"/>
-    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" customWidth="1"/>
+    <col min="4" max="4" width="12.75" customWidth="1"/>
+    <col min="5" max="5" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -755,34 +720,34 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>8</v>
+      <c r="A3" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" s="3"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5" s="4"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -790,23 +755,23 @@
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/src/test/resources/workbook.xlsx
+++ b/src/test/resources/workbook.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Java\WorkbookEventReader\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F0AB6CB-F8D0-4178-BDB5-069001073EA1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDA2DDBF-A86C-4214-A358-314EA3D2AF9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7230" yWindow="2325" windowWidth="16125" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9330" yWindow="2085" windowWidth="18945" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -163,9 +163,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="[$-409]yyyy/m/d\ h:mm\ AM/PM;@"/>
+    <numFmt numFmtId="176" formatCode="[$-409]yyyy/m/d\ h:mm\ AM/PM;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,6 +201,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -224,7 +232,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -237,7 +245,7 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
@@ -259,6 +267,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -539,7 +550,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -601,6 +612,9 @@
       </c>
       <c r="C3" s="7">
         <v>0.89584490740740697</v>
+      </c>
+      <c r="D3" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
